--- a/Project_Krekelhof/Content/Leerlingen.xlsx
+++ b/Project_Krekelhof/Content/Leerlingen.xlsx
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A221" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
